--- a/Scrum/Burnup_Chart.xlsx
+++ b/Scrum/Burnup_Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkimm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkimm\Desktop\CS183\web2py_win\web2py\applications\Draw_a_Piece\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -262,10 +262,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -283,6 +283,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,10 +402,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -414,6 +423,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,6 +1688,39 @@
         <v>55</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>118</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>118</v>
+      </c>
+      <c r="C10">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
